--- a/Perk_data/data/classic/classic_teal_perks.xlsx
+++ b/Perk_data/data/classic/classic_teal_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8BD27D-517D-4CE0-810B-CC538DCA9A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E022A5-405C-4E3D-9DE3-6D763B8DBC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>Item</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>cleanse_pulse</t>
+  </si>
+  <si>
+    <t>1%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>2%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>4%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>6%-COOL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -199,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -209,6 +221,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,7 +256,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -719,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,17 +779,19 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -784,87 +799,120 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3"/>
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3"/>
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C13" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}"/>
+  <autoFilter ref="A1:C16" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Perk_data/data/classic/classic_teal_perks.xlsx
+++ b/Perk_data/data/classic/classic_teal_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E022A5-405C-4E3D-9DE3-6D763B8DBC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469AF8CF-045B-434B-9A42-F3A3929A8688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
   </bookViews>
@@ -48,15 +48,6 @@
     <t>1st-Bonus</t>
   </si>
   <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>Uncommon</t>
-  </si>
-  <si>
     <t>defence_wall</t>
   </si>
   <si>
@@ -94,6 +85,15 @@
   </si>
   <si>
     <t>6%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>uncommon</t>
   </si>
 </sst>
 </file>
@@ -242,197 +242,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2900DEF2-74E0-421C-9275-6E34F9A1B0D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5293995" y="190500"/>
-          <a:ext cx="3368040" cy="3962401"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>READ FIRST</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal of this drive and excel is to have an up to date list of all the perks in all possible rarities. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Here the legendaries have the right values and thus are colored in light green.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal is for you to go around your stuff and check if your perks are already updated. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If they are not updated here, they will not be colored (in the excel) and then you have the oportunity to either dm me on discord with a screeshot of the perk's infos so I change it my self (@komiko44240 on the official battle bay discord sever), or change it yourself (if I can figure out a way to let google drive alow you to do that)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>And please if you change any value that was not modified already, color it with the right (or as close as possible) color (R: 226 G:239 B:218 or hex</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: #e2efda</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>). </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If  the perk that you have is not part of this list, please dm me directly on discord (@komiko44240 on the official battle bay discord sever) without modifying</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any thing here.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Note : If</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any modification apported to this spread sheet is childish you will be banned from accesing this drive</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,7 +544,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,162 +567,161 @@
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C16" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Perk_data/data/classic/classic_teal_perks.xlsx
+++ b/Perk_data/data/classic/classic_teal_perks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469AF8CF-045B-434B-9A42-F3A3929A8688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B96C569-3CB6-4967-A01B-FEF6FFAEF7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>Item</t>
   </si>
@@ -544,7 +544,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,10 +608,12 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
@@ -659,10 +661,12 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
@@ -712,10 +716,12 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
